--- a/src/Наставники.xlsx
+++ b/src/Наставники.xlsx
@@ -470,27 +470,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1308993556</t>
+          <t>1309331202</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-02-09 12:11:45</t>
+          <t>2023-02-09 19:26:10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Прищеп Оксана Сергеевна</t>
+          <t>Стасюк Владислав Николаевич</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -500,29 +500,29 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1308851456</t>
+          <t>1309283256</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-02-09 09:00:28</t>
+          <t>2023-02-09 18:17:07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Кухаренков Алексей Сергеевич</t>
+          <t>Чижов Сергей Сергеевич</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -554,22 +554,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1308812465</t>
+          <t>1308993556</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-09 07:53:54</t>
+          <t>2023-02-09 12:11:45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Курелов Амин Хан-Гереевич</t>
+          <t>Прищеп Оксана Сергеевна</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -579,34 +579,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>9</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1308690629</t>
+          <t>1308851456</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-02-08 22:42:40</t>
+          <t>2023-02-09 09:00:28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Стасюк Владислав Николаевич</t>
+          <t>Кухаренков Алексей Сергеевич</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -638,59 +638,59 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1308633303</t>
+          <t>1308812465</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-02-08 20:52:55</t>
+          <t>2023-02-09 07:53:54</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Чижов Сергей Сергеевич</t>
+          <t>Курелов Амин Хан-Гереевич</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1308557873</t>
+          <t>1308690629</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2023-02-08 19:02:56</t>
+          <t>2023-02-08 22:42:40</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Струкова Анастасия Анатольевна</t>
+          <t>Стасюк Владислав Николаевич</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -722,69 +722,69 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1308516501</t>
+          <t>1308633303</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-02-08 18:04:37</t>
+          <t>2023-02-08 20:52:55</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Тоноян Грант Егишевич</t>
+          <t>Чижов Сергей Сергеевич</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1308508367</t>
+          <t>1308557873</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-02-08 17:53:17</t>
+          <t>2023-02-08 19:02:56</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Волкова Светлана Алексеевна</t>
+          <t>Струкова Анастасия Анатольевна</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1308496899</t>
+          <t>1308516501</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-02-08 17:37:57</t>
+          <t>2023-02-08 18:04:37</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -821,54 +821,54 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>6</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1308494173</t>
+          <t>1308508367</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-02-08 17:34:13</t>
+          <t>2023-02-08 17:53:17</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Кабанова Юлия Николаевна</t>
+          <t>Волкова Светлана Алексеевна</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -878,29 +878,29 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1308493256</t>
+          <t>1308496899</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-02-08 17:33:01</t>
+          <t>2023-02-08 17:37:57</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Стасюк Владислав Николаевич</t>
+          <t>Тоноян Грант Егишевич</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -910,39 +910,39 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1308467038</t>
+          <t>1308494173</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-02-08 16:59:05</t>
+          <t>2023-02-08 17:34:13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Храмов Павел Владимирович</t>
+          <t>Кабанова Юлия Николаевна</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -974,22 +974,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1308466213</t>
+          <t>1308493256</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-02-08 16:58:10</t>
+          <t>2023-02-08 17:33:01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Чижов Сергей Сергеевич</t>
+          <t>Стасюк Владислав Николаевич</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -999,34 +999,34 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1308464427</t>
+          <t>1308467038</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-02-08 16:56:05</t>
+          <t>2023-02-08 16:59:05</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Стасюк Владислав Николаевич</t>
+          <t>Храмов Павел Владимирович</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1058,55 +1058,59 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1308464024</t>
+          <t>1308466213</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-02-08 16:55:34</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>2023-02-08 16:58:10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Чижов Сергей Сергеевич</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1308464006</t>
+          <t>1308464427</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2023-02-08 16:55:33</t>
+          <t>2023-02-08 16:56:05</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Кухаренков Алексей Сергеевич</t>
+          <t>Стасюк Владислав Николаевич</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1138,101 +1142,97 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1308447628</t>
+          <t>1308464024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-02-08 16:35:23</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Кухаренков Алексей Сергеевич</t>
-        </is>
-      </c>
+          <t>2023-02-08 16:55:34</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1308422712</t>
+          <t>1308464006</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-02-08 16:05:54</t>
+          <t>2023-02-08 16:55:33</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Чижов Сергей Сергеевич</t>
+          <t>Кухаренков Алексей Сергеевич</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1308399607</t>
+          <t>1308447628</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-02-08 15:39:03</t>
+          <t>2023-02-08 16:35:23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Амерханова Эльвира Гумеровна</t>
+          <t>Кухаренков Алексей Сергеевич</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1264,59 +1264,59 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1308358286</t>
+          <t>1308422712</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-02-08 14:50:15</t>
+          <t>2023-02-08 16:05:54</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Амерханова Эльвира Гумеровна</t>
+          <t>Чижов Сергей Сергеевич</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1308350635</t>
+          <t>1308399607</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-02-08 14:41:14</t>
+          <t>2023-02-08 15:39:03</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Тоноян Грант Егишевич</t>
+          <t>Амерханова Эльвира Гумеровна</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1348,17 +1348,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1308348670</t>
+          <t>1308358286</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-02-08 14:38:49</t>
+          <t>2023-02-08 14:50:15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Чижов Сергей Сергеевич</t>
+          <t>Амерханова Эльвира Гумеровна</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1390,17 +1390,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1308341546</t>
+          <t>1308350635</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-02-08 14:30:19</t>
+          <t>2023-02-08 14:41:14</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Королева Юлия Вячеславовна</t>
+          <t>Тоноян Грант Егишевич</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1432,15 +1432,19 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1308341033</t>
+          <t>1308348670</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-02-08 14:29:40</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>2023-02-08 14:38:49</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Чижов Сергей Сергеевич</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>10</t>
@@ -1448,7 +1452,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1463,24 +1467,24 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1308340852</t>
+          <t>1308341546</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-02-08 14:29:27</t>
+          <t>2023-02-08 14:30:19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Кухаренков Алексей Сергеевич</t>
+          <t>Королева Юлия Вячеславовна</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1512,19 +1516,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1308290796</t>
+          <t>1308341033</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2023-02-08 13:27:16</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Емельянов Павел Викторович</t>
-        </is>
-      </c>
+          <t>2023-02-08 14:29:40</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>10</t>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1547,29 +1547,29 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1308270370</t>
+          <t>1308340852</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-02-08 13:01:28</t>
+          <t>2023-02-08 14:29:27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Тоноян Грант Егишевич</t>
+          <t>Кухаренков Алексей Сергеевич</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1596,17 +1596,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1308257945</t>
+          <t>1308290796</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-02-08 12:45:48</t>
+          <t>2023-02-08 13:27:16</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Мосина Нина Алексеевна</t>
+          <t>Емельянов Павел Викторович</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1638,12 +1638,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1308248393</t>
+          <t>1308270370</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-02-08 12:33:45</t>
+          <t>2023-02-08 13:01:28</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1680,12 +1680,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1308246088</t>
+          <t>1308257945</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-02-08 12:30:52</t>
+          <t>2023-02-08 12:45:48</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1722,12 +1722,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1308245189</t>
+          <t>1308248393</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-02-08 12:29:44</t>
+          <t>2023-02-08 12:33:45</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1737,17 +1737,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1764,17 +1764,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1308244520</t>
+          <t>1308246088</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-02-08 12:28:54</t>
+          <t>2023-02-08 12:30:52</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Прищеп Оксана Сергеевна</t>
+          <t>Мосина Нина Алексеевна</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1806,32 +1806,32 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1308244319</t>
+          <t>1308245189</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-02-08 12:28:40</t>
+          <t>2023-02-08 12:29:44</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Курелов Амин Хан-Гереевич</t>
+          <t>Тоноян Грант Егишевич</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1848,12 +1848,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1308243697</t>
+          <t>1308244520</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2023-02-08 12:27:52</t>
+          <t>2023-02-08 12:28:54</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1890,17 +1890,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1308243454</t>
+          <t>1308244319</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-02-08 12:27:36</t>
+          <t>2023-02-08 12:28:40</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Мосина Нина Алексеевна</t>
+          <t>Курелов Амин Хан-Гереевич</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1932,17 +1932,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1308242982</t>
+          <t>1308243697</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-02-08 12:26:54</t>
+          <t>2023-02-08 12:27:52</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Дикарева Наталья Викторовна</t>
+          <t>Прищеп Оксана Сергеевна</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1974,17 +1974,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1308242958</t>
+          <t>1308243454</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-02-08 12:26:53</t>
+          <t>2023-02-08 12:27:36</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Жучков Павел Анатольевич</t>
+          <t>Мосина Нина Алексеевна</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2016,17 +2016,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1308242593</t>
+          <t>1308242982</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-02-08 12:26:24</t>
+          <t>2023-02-08 12:26:54</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Стасюк Владислав Николаевич</t>
+          <t>Дикарева Наталья Викторовна</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2058,17 +2058,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1308241953</t>
+          <t>1308242958</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-02-08 12:25:35</t>
+          <t>2023-02-08 12:26:53</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Жириль Александр Николаевич</t>
+          <t>Жучков Павел Анатольевич</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2100,17 +2100,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1308241785</t>
+          <t>1308242593</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-02-08 12:25:22</t>
+          <t>2023-02-08 12:26:24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Прищеп Оксана Сергеевна</t>
+          <t>Стасюк Владислав Николаевич</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2142,27 +2142,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1308241499</t>
+          <t>1308241953</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-02-08 12:25:00</t>
+          <t>2023-02-08 12:25:35</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Тоноян Грант Егишевич</t>
+          <t>Жириль Александр Николаевич</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2184,17 +2184,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1308241302</t>
+          <t>1308241785</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-02-08 12:24:45</t>
+          <t>2023-02-08 12:25:22</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Чижов Сергей Сергеевич</t>
+          <t>Прищеп Оксана Сергеевна</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2226,17 +2226,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1308241147</t>
+          <t>1308241499</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-02-08 12:24:34</t>
+          <t>2023-02-08 12:25:00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Стасюк Владислав Николаевич</t>
+          <t>Тоноян Грант Егишевич</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2268,17 +2268,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1308240994</t>
+          <t>1308241302</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-02-08 12:24:23</t>
+          <t>2023-02-08 12:24:45</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Прищеп Оксана Сергеевна</t>
+          <t>Чижов Сергей Сергеевич</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2310,22 +2310,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1308240570</t>
+          <t>1308241147</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2023-02-08 12:23:51</t>
+          <t>2023-02-08 12:24:34</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Прищеп Оксана Сергеевна</t>
+          <t>Стасюк Владислав Николаевич</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2352,40 +2352,124 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>1308240994</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2023-02-08 12:24:23</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Прищеп Оксана Сергеевна</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1308240570</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2023-02-08 12:23:51</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Прищеп Оксана Сергеевна</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>1308240125</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>2023-02-08 12:23:19</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Мосина Нина Алексеевна</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>10</t>
         </is>
